--- a/outputs-r202/test-g__Blautia_A.xlsx
+++ b/outputs-r202/test-g__Blautia_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Row</t>
   </si>
@@ -181,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,14 +191,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +215,7 @@
   <dimension ref="A1:AT4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="24" customWidth="true"/>
     <col min="3" max="3" width="19.7109375" customWidth="true"/>
     <col min="4" max="4" width="31.42578125" customWidth="true"/>
@@ -260,283 +264,283 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>7.9419210304138391e-07</v>
+        <v>3.9496152113701742e-07</v>
       </c>
       <c r="C2">
-        <v>5.0310579198628622e-09</v>
+        <v>0.00012481675456784878</v>
       </c>
       <c r="D2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="E2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="F2">
-        <v>2.587444558944456e-08</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="G2">
-        <v>2.220836247620317e-14</v>
+        <v>0.19309931182215401</v>
       </c>
       <c r="H2">
-        <v>0.00048518925371419133</v>
+        <v>5.5416862127011666e-08</v>
       </c>
       <c r="I2">
-        <v>0.0065101131483581492</v>
+        <v>7.9014082958479994e-12</v>
       </c>
       <c r="J2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="K2">
-        <v>4.2009022941055067e-10</v>
+        <v>2.9097160925267165e-10</v>
       </c>
       <c r="L2">
-        <v>3.0475408859636955e-10</v>
+        <v>6.840298202301059e-12</v>
       </c>
       <c r="M2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="N2">
-        <v>0.017551268070381883</v>
+        <v>3.2739551156210596e-09</v>
       </c>
       <c r="O2">
-        <v>0.00020173922662110108</v>
+        <v>3.7543233264312801e-11</v>
       </c>
       <c r="P2">
-        <v>0.00052722704947897085</v>
+        <v>0.0022277786053145469</v>
       </c>
       <c r="Q2">
-        <v>6.1020915745846584e-12</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="R2">
-        <v>0.00030994244077734524</v>
+        <v>9.5961215543174182e-05</v>
       </c>
       <c r="S2">
-        <v>0.0044443902508677739</v>
+        <v>6.5810663553354153e-06</v>
       </c>
       <c r="T2">
-        <v>0.0085169566581130458</v>
+        <v>8.279568403827069e-14</v>
       </c>
       <c r="U2">
-        <v>0.00096110496853508076</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="V2">
-        <v>2.6704621198493614e-10</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="W2">
-        <v>2.220836247620317e-14</v>
+        <v>5.1848718967354927e-12</v>
       </c>
       <c r="X2">
-        <v>0.9406198451783826</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="Y2">
-        <v>5.3690018849202888e-07</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="Z2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AA2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AB2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AC2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AD2">
-        <v>2.220836247620317e-14</v>
+        <v>1.5374379065308686e-09</v>
       </c>
       <c r="AE2">
-        <v>0.005353914395355543</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AF2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AG2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AH2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AI2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AK2">
-        <v>2.220836247620317e-14</v>
+        <v>4.9637086749921762e-13</v>
       </c>
       <c r="AL2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AM2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AN2">
-        <v>2.220836247620317e-14</v>
+        <v>0.80308402374960386</v>
       </c>
       <c r="AO2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AP2">
-        <v>2.220836247620317e-14</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AQ2">
-        <v>7.6111893312483665e-12</v>
+        <v>0.001360584368100169</v>
       </c>
       <c r="AR2">
-        <v>0.014514925396273914</v>
+        <v>4.8687900906125746e-07</v>
       </c>
       <c r="AS2">
-        <v>2.0209592528513158e-06</v>
+        <v>2.2200013174131121e-14</v>
       </c>
       <c r="AT2">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
